--- a/singlecell/output/t-test_0.05.xlsx
+++ b/singlecell/output/t-test_0.05.xlsx
@@ -14,204 +14,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>steroid biosynthesis ( sce00100 )</t>
-  </si>
-  <si>
-    <t>pyruvate metabolism ( sce00620 )</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Transport[erm, gm]</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>fatty acid biosynthesis ( sce00061 )</t>
-  </si>
-  <si>
-    <t>Transport[c, n]</t>
-  </si>
-  <si>
-    <t>galactose metabolism ( sce00052 )</t>
-  </si>
-  <si>
-    <t>sulfur metabolism ( sce00920 )</t>
-  </si>
-  <si>
-    <t>Transport[c, e]</t>
-  </si>
-  <si>
-    <t>pantothenate and coa biosynthesis ( sce00770 )</t>
-  </si>
-  <si>
-    <t>Transport[erm, lp]</t>
-  </si>
-  <si>
-    <t>Transport[er, c]</t>
-  </si>
-  <si>
-    <t>Transport[c, erm]</t>
-  </si>
-  <si>
-    <t>Transport[erm, mm]</t>
-  </si>
-  <si>
-    <t>phenylalanine, tyrosine and tryptophan biosynthesis ( sce00400 )</t>
-  </si>
-  <si>
-    <t>arginine and proline metabolism ( sce00330 )</t>
-  </si>
-  <si>
-    <t>tryptophan metabolism ( sce00380 )</t>
-  </si>
-  <si>
-    <t>inositol phosphate metabolism ( sce00562 )</t>
-  </si>
-  <si>
-    <t>Transport[m, c]</t>
-  </si>
-  <si>
-    <t>Transport[er, erm]</t>
-  </si>
-  <si>
-    <t>starch and sucrose metabolism ( sce00500 )</t>
-  </si>
-  <si>
-    <t>nicotinate and nicotinamide metabolism ( sce00760 )</t>
-  </si>
-  <si>
-    <t>tyrosine metabolism ( sce00350 )</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of unsaturated fatty acids</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine metabolism</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>tRNA metabolism</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis</t>
   </si>
   <si>
     <t>Exchange reaction</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>histidine metabolism ( sce00340 )</t>
-  </si>
-  <si>
-    <t>folate biosynthesis ( sce00790 )</t>
-  </si>
-  <si>
-    <t>fatty acid degradation ( sce00071 )</t>
-  </si>
-  <si>
-    <t>glycolysis / gluconeogenesis ( sce00010 )</t>
-  </si>
-  <si>
-    <t>glyoxylate and dicarboxylate metabolism ( sce00630 )</t>
-  </si>
-  <si>
-    <t>Transport[e, c]</t>
-  </si>
-  <si>
-    <t>Transport[c, lp]</t>
-  </si>
-  <si>
-    <t>pentose phosphate pathway ( sce00030 )</t>
-  </si>
-  <si>
-    <t>amino sugar and nucleotide sugar metabolism ( sce00520 )</t>
-  </si>
-  <si>
-    <t>glycerolipid metabolism /  glycerophospholipid metabolism ( sce00561,sce00564 )</t>
-  </si>
-  <si>
-    <t>Transport[mm, erm]</t>
-  </si>
-  <si>
-    <t>aminoacyl-trna biosynthesis ( sce00970 )</t>
-  </si>
-  <si>
-    <t>slime reaction</t>
-  </si>
-  <si>
-    <t>riboflavin metabolism ( sce00740 )</t>
-  </si>
-  <si>
-    <t>lysine metabolism</t>
-  </si>
-  <si>
-    <t>one carbon pool by folate ( sce00670 )</t>
-  </si>
-  <si>
-    <t>terpenoid backbone biosynthesis ( sce00900 )</t>
-  </si>
-  <si>
-    <t>cysteine and methionine metabolism ( sce00270 )</t>
-  </si>
-  <si>
-    <t>pyrimidine metabolism ( sce00240 )</t>
-  </si>
-  <si>
-    <t>fructose and mannose metabolism ( sce00051 )</t>
-  </si>
-  <si>
-    <t>purine metabolism ( sce00230 )</t>
-  </si>
-  <si>
-    <t>Transport[n, c]</t>
-  </si>
-  <si>
-    <t>glycerophospholipid metabolism ( sce00564 )</t>
-  </si>
-  <si>
-    <t>oxidative phosphorylation ( sce00190 )</t>
-  </si>
-  <si>
-    <t>glycerolipid metabolism ( sce00561 )</t>
-  </si>
-  <si>
-    <t>thiamine metabolism ( sce00730 )</t>
-  </si>
-  <si>
-    <t>Transport[c, er]</t>
-  </si>
-  <si>
-    <t>valine, leucine and isoleucine metabolism</t>
-  </si>
-  <si>
-    <t>biosynthesis of unsaturated fatty acids ( sce01040 )</t>
-  </si>
-  <si>
-    <t>arginine biosynthesis ( sce00220 )</t>
-  </si>
-  <si>
-    <t>exchange reaction</t>
-  </si>
-  <si>
-    <t>Transport[c, gm]</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Transport[erm, c]</t>
-  </si>
-  <si>
-    <t>n-glycan biosynthesis ( sce00510 )</t>
-  </si>
-  <si>
-    <t>citrate cycle (tca cycle) ( sce00020 )</t>
-  </si>
-  <si>
-    <t>beta-alanine metabolism ( sce00410 )</t>
-  </si>
-  <si>
-    <t>glycine, serine and threonine metabolism ( sce00260 )</t>
-  </si>
-  <si>
-    <t>alanine, aspartate and glutamate metabolism ( sce00250 )</t>
-  </si>
-  <si>
-    <t>Transport[c, m]</t>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Lysine metabolism</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>SLIME reaction</t>
+  </si>
+  <si>
+    <t>Inositol phosphate metabolism</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Steroid biosynthesis</t>
+  </si>
+  <si>
+    <t>Pantothenate and coa biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolysis / gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Beta-alanine metabolism</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>N-glycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
   </si>
 </sst>
 </file>
@@ -569,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -601,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -609,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -617,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -625,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -641,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -649,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -657,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -665,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -681,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -689,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -697,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -705,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -713,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -721,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -729,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -737,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -761,7 +704,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -769,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -777,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -801,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -809,7 +752,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -817,7 +760,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -825,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -833,7 +776,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -841,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -849,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -857,7 +800,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -865,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -873,7 +816,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -881,7 +824,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -889,7 +832,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -897,7 +840,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -905,7 +848,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -913,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -921,7 +864,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -929,7 +872,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -937,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -945,7 +888,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -953,159 +896,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
         <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
